--- a/tablas.xlsx
+++ b/tablas.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enyor Peralta\Documents\GitHub\ElFinal\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42955798-C7EA-43CA-BF77-1249341EBA35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$79</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="223">
   <si>
     <t>TABLA</t>
   </si>
@@ -590,19 +604,109 @@
   </si>
   <si>
     <t>codigo del delivery</t>
+  </si>
+  <si>
+    <t>Preguntas</t>
+  </si>
+  <si>
+    <t>Id_pregunta</t>
+  </si>
+  <si>
+    <t>id_servicio</t>
+  </si>
+  <si>
+    <t>pregunta</t>
+  </si>
+  <si>
+    <t>respuesta</t>
+  </si>
+  <si>
+    <t>valor respuesta</t>
+  </si>
+  <si>
+    <t>pk</t>
+  </si>
+  <si>
+    <t>fk</t>
+  </si>
+  <si>
+    <t>codigo de la pregunta</t>
+  </si>
+  <si>
+    <t>codigo del servicio</t>
+  </si>
+  <si>
+    <t>pregunta a calificar</t>
+  </si>
+  <si>
+    <t>respuesta o calificacion</t>
+  </si>
+  <si>
+    <t>proporcion de valor a la pregunta</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Como califica la atencion recibida en el supermercado la Sirena</t>
+  </si>
+  <si>
+    <t>Buena</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>Servicio</t>
+  </si>
+  <si>
+    <t>descripcion</t>
+  </si>
+  <si>
+    <t>codigo servicio</t>
+  </si>
+  <si>
+    <t>nomrbe del servicio</t>
+  </si>
+  <si>
+    <t>Delivery</t>
+  </si>
+  <si>
+    <t>Historial Comparacio</t>
+  </si>
+  <si>
+    <t>id_HistComp</t>
+  </si>
+  <si>
+    <t>detalleCompra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">codigo historial </t>
+  </si>
+  <si>
+    <t xml:space="preserve">codigo empresa </t>
+  </si>
+  <si>
+    <t>codigo detalle de compra</t>
+  </si>
+  <si>
+    <t>0323</t>
+  </si>
+  <si>
+    <t>Supermercado La Fuente</t>
+  </si>
+  <si>
+    <t>4573</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -641,154 +745,16 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -797,204 +763,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.05"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1054,255 +834,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1330,60 +871,54 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1402,62 +937,28 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1715,31 +1216,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G79"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.1428571428571" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.5714285714286" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.71428571428571" style="3" customWidth="1"/>
-    <col min="4" max="4" width="6.28571428571429" style="3" customWidth="1"/>
-    <col min="5" max="5" width="7.71428571428571" style="3" customWidth="1"/>
-    <col min="6" max="6" width="27.8571428571429" style="4" customWidth="1"/>
-    <col min="7" max="7" width="19.5714285714286" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9.14285714285714" style="3"/>
+    <col min="1" max="1" width="23.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:7">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="15.75">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1762,1610 +1263,1820 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:7" ht="14.25">
+      <c r="A2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="11">
+      <c r="C2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="10">
         <v>4</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="14"/>
-      <c r="B3" s="10" t="s">
+      <c r="G2" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.25">
+      <c r="A3" s="23"/>
+      <c r="B3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>100</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="14"/>
-      <c r="B4" s="10" t="s">
+    <row r="4" spans="1:7" ht="14.25">
+      <c r="A4" s="23"/>
+      <c r="B4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="11">
+      <c r="C4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="10">
         <v>4</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="14"/>
-      <c r="B5" s="10" t="s">
+    <row r="5" spans="1:7" ht="14.25">
+      <c r="A5" s="23"/>
+      <c r="B5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>20</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12" t="s">
+      <c r="E5" s="10"/>
+      <c r="F5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="12">
         <v>40210384083</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="14"/>
-      <c r="B6" s="10" t="s">
+    <row r="6" spans="1:7" ht="14.25">
+      <c r="A6" s="23"/>
+      <c r="B6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>10</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12" t="s">
+      <c r="E6" s="10"/>
+      <c r="F6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="14"/>
-      <c r="B7" s="10" t="s">
+    <row r="7" spans="1:7" ht="14.25">
+      <c r="A7" s="23"/>
+      <c r="B7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="11">
-        <v>1</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12" t="s">
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="14"/>
-      <c r="B8" s="10" t="s">
+    <row r="8" spans="1:7" ht="14.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="11">
-        <v>1</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12" t="s">
+      <c r="D8" s="10">
+        <v>1</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="17" t="s">
+    <row r="9" spans="1:7" ht="14.25">
+      <c r="A9" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="19">
+      <c r="C9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="16">
         <v>4</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="22"/>
-      <c r="B10" s="18" t="s">
+      <c r="G9" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.25">
+      <c r="A10" s="24"/>
+      <c r="B10" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="16">
         <v>30</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20" t="s">
+      <c r="E10" s="16"/>
+      <c r="F10" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="22"/>
-      <c r="B11" s="18" t="s">
+    <row r="11" spans="1:7" ht="14.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="19">
-        <v>1</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20" t="s">
+      <c r="D11" s="16">
+        <v>1</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:7" ht="14.25">
+      <c r="A12" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>20</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="14"/>
-      <c r="B13" s="10" t="s">
+    <row r="13" spans="1:7" ht="14.25">
+      <c r="A13" s="23"/>
+      <c r="B13" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="11">
+      <c r="C13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="10">
         <v>4</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="14"/>
-      <c r="B14" s="10" t="s">
+      <c r="G13" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.25">
+      <c r="A14" s="23"/>
+      <c r="B14" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="11">
+      <c r="C14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="10">
         <v>4</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="14"/>
-      <c r="B15" s="10" t="s">
+      <c r="G14" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14.25">
+      <c r="A15" s="23"/>
+      <c r="B15" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <v>2000</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12" t="s">
+      <c r="E15" s="10"/>
+      <c r="F15" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="14"/>
-      <c r="B16" s="10" t="s">
+    <row r="16" spans="1:7" ht="14.25">
+      <c r="A16" s="23"/>
+      <c r="B16" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="11">
-        <v>1</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12" t="s">
+      <c r="D16" s="10">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="17" t="s">
+    <row r="17" spans="1:7" ht="14.25">
+      <c r="A17" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="19">
+      <c r="C17" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="16">
         <v>4</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="22"/>
-      <c r="B18" s="18" t="s">
+      <c r="G17" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="14.25">
+      <c r="A18" s="24"/>
+      <c r="B18" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="19">
+      <c r="C18" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="16">
         <v>4</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="22"/>
-      <c r="B19" s="18" t="s">
+    <row r="19" spans="1:7" ht="14.25">
+      <c r="A19" s="24"/>
+      <c r="B19" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="19">
-        <v>1</v>
-      </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20" t="s">
+      <c r="D19" s="16">
+        <v>1</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="22"/>
-      <c r="B20" s="18" t="s">
+    <row r="20" spans="1:7" ht="14.25">
+      <c r="A20" s="24"/>
+      <c r="B20" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="16">
         <v>10</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20" t="s">
+      <c r="E20" s="16"/>
+      <c r="F20" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:7" ht="14.25">
+      <c r="A21" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="11">
+      <c r="C21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="10">
         <v>4</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="14"/>
-      <c r="B22" s="10" t="s">
+      <c r="G21" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="14.25">
+      <c r="A22" s="23"/>
+      <c r="B22" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="10">
         <v>200</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12" t="s">
+      <c r="E22" s="10"/>
+      <c r="F22" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="14"/>
-      <c r="B23" s="10" t="s">
+    <row r="23" spans="1:7" ht="14.25">
+      <c r="A23" s="23"/>
+      <c r="B23" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="10">
         <v>100</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12" t="s">
+      <c r="E23" s="10"/>
+      <c r="F23" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="G23" s="21" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="14"/>
-      <c r="B24" s="10" t="s">
+    <row r="24" spans="1:7" ht="14.25">
+      <c r="A24" s="23"/>
+      <c r="B24" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="10">
         <v>15</v>
       </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12" t="s">
+      <c r="E24" s="10"/>
+      <c r="F24" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="14"/>
-      <c r="B25" s="10" t="s">
+    <row r="25" spans="1:7" ht="14.25">
+      <c r="A25" s="23"/>
+      <c r="B25" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="10">
         <v>200</v>
       </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="12" t="s">
+      <c r="E25" s="10"/>
+      <c r="F25" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="G25" s="21" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="14"/>
-      <c r="B26" s="10" t="s">
+    <row r="26" spans="1:7" ht="14.25">
+      <c r="A26" s="23"/>
+      <c r="B26" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="11">
-        <v>1</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="12" t="s">
+      <c r="D26" s="10">
+        <v>1</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G26" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" ht="25.5" spans="1:7">
-      <c r="A27" s="14"/>
-      <c r="B27" s="10" t="s">
+    <row r="27" spans="1:7" ht="25.5">
+      <c r="A27" s="23"/>
+      <c r="B27" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="10">
         <v>100</v>
       </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="12" t="s">
+      <c r="E27" s="10"/>
+      <c r="F27" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="17" t="s">
+    <row r="28" spans="1:7" ht="14.25">
+      <c r="A28" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="16">
         <v>5</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="G28" s="23" t="s">
+      <c r="G28" s="19" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="29" ht="25.5" spans="1:7">
-      <c r="A29" s="22"/>
-      <c r="B29" s="18" t="s">
+    <row r="29" spans="1:7" ht="25.5">
+      <c r="A29" s="24"/>
+      <c r="B29" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="16">
         <v>100</v>
       </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20" t="s">
+      <c r="E29" s="16"/>
+      <c r="F29" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="G29" s="19" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="22"/>
-      <c r="B30" s="18" t="s">
+    <row r="30" spans="1:7" ht="14.25">
+      <c r="A30" s="24"/>
+      <c r="B30" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="19">
-        <v>1</v>
-      </c>
-      <c r="E30" s="19"/>
-      <c r="F30" s="20" t="s">
+      <c r="D30" s="16">
+        <v>1</v>
+      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G30" s="23" t="s">
+      <c r="G30" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="9" t="s">
+    <row r="31" spans="1:7" ht="14.25">
+      <c r="A31" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="11">
+      <c r="C31" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="10">
         <v>4</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="G31" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="14"/>
-      <c r="B32" s="10" t="s">
+      <c r="G31" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="25.5">
+      <c r="A32" s="23"/>
+      <c r="B32" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="10">
         <v>100</v>
       </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="12" t="s">
+      <c r="E32" s="10"/>
+      <c r="F32" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G32" s="15" t="s">
+      <c r="G32" s="13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="14"/>
-      <c r="B33" s="10" t="s">
+    <row r="33" spans="1:8" ht="14.25">
+      <c r="A33" s="23"/>
+      <c r="B33" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="11">
-        <v>1</v>
-      </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="12" t="s">
+      <c r="D33" s="10">
+        <v>1</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="G33" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="17" t="s">
+    <row r="34" spans="1:8" ht="14.25">
+      <c r="A34" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="19">
+      <c r="C34" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="16">
         <v>4</v>
       </c>
-      <c r="E34" s="18" t="s">
+      <c r="E34" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="20" t="s">
+      <c r="F34" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="G34" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="22"/>
-      <c r="B35" s="18" t="s">
+      <c r="G34" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="14.25">
+      <c r="A35" s="24"/>
+      <c r="B35" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D35" s="16">
         <v>100</v>
       </c>
-      <c r="E35" s="19"/>
-      <c r="F35" s="20" t="s">
+      <c r="E35" s="16"/>
+      <c r="F35" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G35" s="23" t="s">
+      <c r="G35" s="19" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="22"/>
-      <c r="B36" s="18" t="s">
+    <row r="36" spans="1:8" ht="14.25">
+      <c r="A36" s="24"/>
+      <c r="B36" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="19">
-        <v>1</v>
-      </c>
-      <c r="E36" s="19"/>
-      <c r="F36" s="20" t="s">
+      <c r="D36" s="16">
+        <v>1</v>
+      </c>
+      <c r="E36" s="16"/>
+      <c r="F36" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G36" s="23" t="s">
+      <c r="G36" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="22"/>
-      <c r="B37" s="18" t="s">
+    <row r="37" spans="1:8" ht="14.25">
+      <c r="A37" s="24"/>
+      <c r="B37" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D37" s="16">
         <v>5</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="E37" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="20" t="s">
+      <c r="F37" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="G37" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="9" t="s">
+      <c r="G37" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="14.25">
+      <c r="A38" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C38" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="11">
+      <c r="C38" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="10">
         <v>4</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="F38" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="G38" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" ht="25.5" spans="1:7">
-      <c r="A39" s="14"/>
-      <c r="B39" s="10" t="s">
+      <c r="G38" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="25.5">
+      <c r="A39" s="23"/>
+      <c r="B39" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="10">
         <v>500</v>
       </c>
-      <c r="E39" s="11"/>
-      <c r="F39" s="12" t="s">
+      <c r="E39" s="10"/>
+      <c r="F39" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G39" s="15" t="s">
+      <c r="G39" s="13" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="14"/>
-      <c r="B40" s="10" t="s">
+    <row r="40" spans="1:8" ht="14.25">
+      <c r="A40" s="23"/>
+      <c r="B40" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="11">
-        <v>1</v>
-      </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="12" t="s">
+      <c r="D40" s="10">
+        <v>1</v>
+      </c>
+      <c r="E40" s="10"/>
+      <c r="F40" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G40" s="15" t="s">
+      <c r="G40" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="14"/>
-      <c r="B41" s="10" t="s">
+    <row r="41" spans="1:8" ht="14.25">
+      <c r="A41" s="23"/>
+      <c r="B41" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="11">
+      <c r="C41" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="10">
         <v>4</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E41" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="12" t="s">
+      <c r="F41" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="G41" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="14"/>
-      <c r="B42" s="10" t="s">
+      <c r="G41" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="14.25">
+      <c r="A42" s="23"/>
+      <c r="B42" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C42" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="11">
+      <c r="C42" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="10">
         <v>4</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F42" s="12" t="s">
+      <c r="F42" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="G42" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="14"/>
-      <c r="B43" s="10" t="s">
+      <c r="G42" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="14.25">
+      <c r="A43" s="23"/>
+      <c r="B43" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="11">
-        <v>1</v>
-      </c>
-      <c r="E43" s="11"/>
-      <c r="F43" s="12" t="s">
+      <c r="D43" s="10">
+        <v>1</v>
+      </c>
+      <c r="E43" s="10"/>
+      <c r="F43" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="G43" s="15" t="s">
+      <c r="G43" s="13" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="14"/>
-      <c r="B44" s="10" t="s">
+    <row r="44" spans="1:8" ht="14.25">
+      <c r="A44" s="23"/>
+      <c r="B44" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="10">
         <v>20</v>
       </c>
-      <c r="E44" s="11"/>
-      <c r="F44" s="12" t="s">
+      <c r="E44" s="10"/>
+      <c r="F44" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="G44" s="15" t="s">
+      <c r="G44" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="14"/>
-      <c r="B45" s="10" t="s">
+    <row r="45" spans="1:8" ht="14.25">
+      <c r="A45" s="23"/>
+      <c r="B45" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="10">
         <v>20</v>
       </c>
-      <c r="E45" s="11"/>
-      <c r="F45" s="12" t="s">
+      <c r="E45" s="10"/>
+      <c r="F45" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="G45" s="16" t="s">
+      <c r="G45" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="H45" s="26"/>
-    </row>
-    <row r="46" ht="25.5" spans="1:7">
-      <c r="A46" s="14"/>
-      <c r="B46" s="10" t="s">
+      <c r="H45" s="22"/>
+    </row>
+    <row r="46" spans="1:8" ht="25.5">
+      <c r="A46" s="23"/>
+      <c r="B46" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="10">
         <v>20</v>
       </c>
-      <c r="E46" s="11"/>
-      <c r="F46" s="12" t="s">
+      <c r="E46" s="10"/>
+      <c r="F46" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="G46" s="15" t="s">
+      <c r="G46" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="14"/>
-      <c r="B47" s="10" t="s">
+    <row r="47" spans="1:8" ht="14.25">
+      <c r="A47" s="23"/>
+      <c r="B47" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D47" s="10">
         <v>20</v>
       </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="12" t="s">
+      <c r="E47" s="10"/>
+      <c r="F47" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="G47" s="16" t="s">
+      <c r="G47" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="H47" s="26"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="17" t="s">
+      <c r="H47" s="22"/>
+    </row>
+    <row r="48" spans="1:8" ht="14.25">
+      <c r="A48" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="C48" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="19">
+      <c r="C48" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="16">
         <v>4</v>
       </c>
-      <c r="E48" s="18" t="s">
+      <c r="E48" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F48" s="20" t="s">
+      <c r="F48" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="G48" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="22"/>
-      <c r="B49" s="18" t="s">
+      <c r="G48" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="14.25">
+      <c r="A49" s="24"/>
+      <c r="B49" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="19">
+      <c r="D49" s="16">
         <v>500</v>
       </c>
-      <c r="E49" s="19"/>
-      <c r="F49" s="20" t="s">
+      <c r="E49" s="16"/>
+      <c r="F49" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="G49" s="23" t="s">
+      <c r="G49" s="19" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="22"/>
-      <c r="B50" s="18" t="s">
+    <row r="50" spans="1:7" ht="14.25">
+      <c r="A50" s="24"/>
+      <c r="B50" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D50" s="19">
-        <v>1</v>
-      </c>
-      <c r="E50" s="19"/>
-      <c r="F50" s="20" t="s">
+      <c r="D50" s="16">
+        <v>1</v>
+      </c>
+      <c r="E50" s="16"/>
+      <c r="F50" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G50" s="23" t="s">
+      <c r="G50" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="9" t="s">
+    <row r="51" spans="1:7" ht="14.25">
+      <c r="A51" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C51" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="11">
+      <c r="C51" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="10">
         <v>4</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="E51" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F51" s="12" t="s">
+      <c r="F51" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="G51" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" ht="25.5" spans="1:7">
-      <c r="A52" s="14"/>
-      <c r="B52" s="10" t="s">
+      <c r="G51" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="25.5">
+      <c r="A52" s="23"/>
+      <c r="B52" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D52" s="10">
         <v>500</v>
       </c>
-      <c r="E52" s="11"/>
-      <c r="F52" s="12" t="s">
+      <c r="E52" s="10"/>
+      <c r="F52" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="G52" s="15" t="s">
+      <c r="G52" s="13" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="14"/>
-      <c r="B53" s="10" t="s">
+    <row r="53" spans="1:7" ht="14.25">
+      <c r="A53" s="23"/>
+      <c r="B53" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="11">
-        <v>1</v>
-      </c>
-      <c r="E53" s="11"/>
-      <c r="F53" s="12" t="s">
+      <c r="D53" s="10">
+        <v>1</v>
+      </c>
+      <c r="E53" s="10"/>
+      <c r="F53" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G53" s="15" t="s">
+      <c r="G53" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="14"/>
-      <c r="B54" s="10" t="s">
+    <row r="54" spans="1:7" ht="14.25">
+      <c r="A54" s="23"/>
+      <c r="B54" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C54" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="11">
+      <c r="C54" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="10">
         <v>4</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="E54" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F54" s="12" t="s">
+      <c r="F54" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="G54" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="27" t="s">
+      <c r="G54" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="14.25">
+      <c r="A55" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C55" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="19">
+      <c r="C55" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="16">
         <v>4</v>
       </c>
-      <c r="E55" s="18" t="s">
+      <c r="E55" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="F55" s="20" t="s">
+      <c r="F55" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="G55" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="28"/>
-      <c r="B56" s="18" t="s">
+      <c r="G55" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="14.25">
+      <c r="A56" s="26"/>
+      <c r="B56" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="C56" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="19">
+      <c r="C56" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="16">
         <v>4</v>
       </c>
-      <c r="E56" s="18" t="s">
+      <c r="E56" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="F56" s="20" t="s">
+      <c r="F56" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="G56" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" ht="25.5" spans="1:7">
-      <c r="A57" s="29"/>
-      <c r="B57" s="18" t="s">
+      <c r="G56" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="25.5">
+      <c r="A57" s="27"/>
+      <c r="B57" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C57" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="D57" s="18" t="s">
+      <c r="D57" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="E57" s="19"/>
-      <c r="F57" s="20" t="s">
+      <c r="E57" s="16"/>
+      <c r="F57" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="G57" s="21">
+      <c r="G57" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="30" t="s">
+    <row r="58" spans="1:7" ht="14.25">
+      <c r="A58" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D58" s="10">
         <v>20</v>
       </c>
-      <c r="E58" s="10" t="s">
+      <c r="E58" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="F58" s="12" t="s">
+      <c r="F58" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="G58" s="15" t="s">
+      <c r="G58" s="13" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="31"/>
-      <c r="B59" s="10" t="s">
+    <row r="59" spans="1:7" ht="14.25">
+      <c r="A59" s="29"/>
+      <c r="B59" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C59" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="11">
+      <c r="C59" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="10">
         <v>4</v>
       </c>
-      <c r="E59" s="10" t="s">
+      <c r="E59" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="F59" s="12" t="s">
+      <c r="F59" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="G59" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="31"/>
-      <c r="B60" s="10" t="s">
+      <c r="G59" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="14.25">
+      <c r="A60" s="29"/>
+      <c r="B60" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="E60" s="11"/>
-      <c r="F60" s="12" t="s">
+      <c r="E60" s="10"/>
+      <c r="F60" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="G60" s="13">
+      <c r="G60" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="31"/>
-      <c r="B61" s="10" t="s">
+    <row r="61" spans="1:7" ht="14.25">
+      <c r="A61" s="29"/>
+      <c r="B61" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="E61" s="11"/>
-      <c r="F61" s="12" t="s">
+      <c r="E61" s="10"/>
+      <c r="F61" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="G61" s="13">
+      <c r="G61" s="12">
         <v>56</v>
       </c>
     </row>
-    <row r="62" ht="25.5" spans="1:7">
-      <c r="A62" s="32"/>
-      <c r="B62" s="10" t="s">
+    <row r="62" spans="1:7" ht="25.5">
+      <c r="A62" s="30"/>
+      <c r="B62" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="E62" s="11"/>
-      <c r="F62" s="12" t="s">
+      <c r="E62" s="10"/>
+      <c r="F62" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="G62" s="13">
+      <c r="G62" s="12">
         <f>G61*G60</f>
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="17" t="s">
+    <row r="63" spans="1:7" ht="14.25">
+      <c r="A63" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="C63" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="19">
+      <c r="C63" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="16">
         <v>4</v>
       </c>
-      <c r="E63" s="18" t="s">
+      <c r="E63" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F63" s="20" t="s">
+      <c r="F63" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="G63" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" ht="25.5" spans="1:7">
-      <c r="A64" s="22"/>
-      <c r="B64" s="18" t="s">
+      <c r="G63" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="25.5">
+      <c r="A64" s="24"/>
+      <c r="B64" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="C64" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="19">
+      <c r="C64" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="16">
         <v>4</v>
       </c>
-      <c r="E64" s="18" t="s">
+      <c r="E64" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F64" s="20" t="s">
+      <c r="F64" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="G64" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" ht="25.5" spans="1:7">
-      <c r="A65" s="22"/>
-      <c r="B65" s="18" t="s">
+      <c r="G64" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="25.5">
+      <c r="A65" s="24"/>
+      <c r="B65" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="C65" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D65" s="19">
+      <c r="D65" s="16">
         <v>20</v>
       </c>
-      <c r="E65" s="18" t="s">
+      <c r="E65" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F65" s="20" t="s">
+      <c r="F65" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="G65" s="23" t="s">
+      <c r="G65" s="19" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="22"/>
-      <c r="B66" s="18" t="s">
+    <row r="66" spans="1:8" ht="14.25">
+      <c r="A66" s="24"/>
+      <c r="B66" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C66" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="D66" s="19">
+      <c r="D66" s="16">
         <v>20</v>
       </c>
-      <c r="E66" s="19"/>
-      <c r="F66" s="20" t="s">
+      <c r="E66" s="16"/>
+      <c r="F66" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="G66" s="24" t="s">
+      <c r="G66" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="H66" s="26"/>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="22"/>
-      <c r="B67" s="18" t="s">
+      <c r="H66" s="22"/>
+    </row>
+    <row r="67" spans="1:8" ht="14.25">
+      <c r="A67" s="24"/>
+      <c r="B67" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="C67" s="18" t="s">
+      <c r="C67" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="D67" s="18" t="s">
+      <c r="D67" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="E67" s="19"/>
-      <c r="F67" s="20" t="s">
+      <c r="E67" s="16"/>
+      <c r="F67" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="G67" s="21">
+      <c r="G67" s="18">
         <v>112</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="22"/>
-      <c r="B68" s="18" t="s">
+    <row r="68" spans="1:8" ht="14.25">
+      <c r="A68" s="24"/>
+      <c r="B68" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C68" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D68" s="19">
-        <v>1</v>
-      </c>
-      <c r="E68" s="19"/>
-      <c r="F68" s="20" t="s">
+      <c r="D68" s="16">
+        <v>1</v>
+      </c>
+      <c r="E68" s="16"/>
+      <c r="F68" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G68" s="23" t="s">
+      <c r="G68" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="22"/>
-      <c r="B69" s="18" t="s">
+    <row r="69" spans="1:8" ht="14.25">
+      <c r="A69" s="24"/>
+      <c r="B69" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="C69" s="18" t="s">
+      <c r="C69" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="D69" s="19">
+      <c r="D69" s="16">
         <v>20</v>
       </c>
-      <c r="E69" s="19"/>
-      <c r="F69" s="20" t="s">
+      <c r="E69" s="16"/>
+      <c r="F69" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="G69" s="24" t="s">
+      <c r="G69" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="H69" s="26"/>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="30" t="s">
+      <c r="H69" s="22"/>
+    </row>
+    <row r="70" spans="1:8" ht="14.25">
+      <c r="A70" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="C70" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="11">
+      <c r="C70" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="10">
         <v>4</v>
       </c>
-      <c r="E70" s="10" t="s">
+      <c r="E70" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="F70" s="12" t="s">
+      <c r="F70" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="G70" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="31"/>
-      <c r="B71" s="10" t="s">
+      <c r="G70" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="14.25">
+      <c r="A71" s="29"/>
+      <c r="B71" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="C71" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="11">
+      <c r="C71" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="10">
         <v>4</v>
       </c>
-      <c r="E71" s="10" t="s">
+      <c r="E71" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="F71" s="12" t="s">
+      <c r="F71" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="G71" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="31"/>
-      <c r="B72" s="10" t="s">
+      <c r="G71" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="25.5">
+      <c r="A72" s="29"/>
+      <c r="B72" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C72" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="D72" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="E72" s="11"/>
-      <c r="F72" s="12" t="s">
+      <c r="E72" s="10"/>
+      <c r="F72" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="G72" s="13">
+      <c r="G72" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="31"/>
-      <c r="B73" s="10" t="s">
+    <row r="73" spans="1:8" ht="14.25">
+      <c r="A73" s="29"/>
+      <c r="B73" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C73" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D73" s="10" t="s">
+      <c r="D73" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="E73" s="11"/>
-      <c r="F73" s="12" t="s">
+      <c r="E73" s="10"/>
+      <c r="F73" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="G73" s="13">
+      <c r="G73" s="12">
         <v>56</v>
       </c>
     </row>
-    <row r="74" ht="25.5" spans="1:7">
-      <c r="A74" s="32"/>
-      <c r="B74" s="10" t="s">
+    <row r="74" spans="1:8" ht="25.5">
+      <c r="A74" s="30"/>
+      <c r="B74" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C74" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D74" s="10" t="s">
+      <c r="D74" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="E74" s="11"/>
-      <c r="F74" s="12" t="s">
+      <c r="E74" s="10"/>
+      <c r="F74" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="G74" s="13">
+      <c r="G74" s="12">
         <v>112</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="27" t="s">
+    <row r="75" spans="1:8" ht="14.25">
+      <c r="A75" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="B75" s="18" t="s">
+      <c r="B75" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="C75" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="19">
+      <c r="C75" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="16">
         <v>4</v>
       </c>
-      <c r="E75" s="18" t="s">
+      <c r="E75" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="F75" s="20" t="s">
+      <c r="F75" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="G75" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" ht="25.5" spans="1:8">
-      <c r="A76" s="28"/>
-      <c r="B76" s="18" t="s">
+      <c r="G75" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="25.5">
+      <c r="A76" s="26"/>
+      <c r="B76" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="C76" s="18" t="s">
+      <c r="C76" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="D76" s="19">
+      <c r="D76" s="16">
         <v>20</v>
       </c>
-      <c r="E76" s="19"/>
-      <c r="F76" s="20" t="s">
+      <c r="E76" s="16"/>
+      <c r="F76" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="G76" s="24" t="s">
+      <c r="G76" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="H76" s="26"/>
-    </row>
-    <row r="77" ht="38.25" spans="1:7">
-      <c r="A77" s="28"/>
-      <c r="B77" s="18" t="s">
+      <c r="H76" s="22"/>
+    </row>
+    <row r="77" spans="1:8" ht="38.25">
+      <c r="A77" s="26"/>
+      <c r="B77" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="C77" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="19">
+      <c r="C77" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="16">
         <v>4</v>
       </c>
-      <c r="E77" s="19"/>
-      <c r="F77" s="20" t="s">
+      <c r="E77" s="16"/>
+      <c r="F77" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="G77" s="21">
+      <c r="G77" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="78" ht="38.25" spans="1:7">
-      <c r="A78" s="28"/>
-      <c r="B78" s="18" t="s">
+    <row r="78" spans="1:8" ht="38.25">
+      <c r="A78" s="26"/>
+      <c r="B78" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C78" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="19">
+      <c r="C78" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="16">
         <v>4</v>
       </c>
-      <c r="E78" s="19"/>
-      <c r="F78" s="20" t="s">
+      <c r="E78" s="16"/>
+      <c r="F78" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="G78" s="21">
+      <c r="G78" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="29"/>
-      <c r="B79" s="18" t="s">
+    <row r="79" spans="1:8" ht="14.25">
+      <c r="A79" s="27"/>
+      <c r="B79" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="C79" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="19">
+      <c r="C79" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="16">
         <v>4</v>
       </c>
-      <c r="E79" s="18" t="s">
+      <c r="E79" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F79" s="20" t="s">
+      <c r="F79" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="G79" s="21">
-        <v>1</v>
+      <c r="G79" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15" customHeight="1">
+      <c r="A80" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="B80" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="C80" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="31">
+        <v>8</v>
+      </c>
+      <c r="E80" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="F80" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="G80" s="33" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="15" customHeight="1">
+      <c r="A81" s="24"/>
+      <c r="B81" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="C81" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="31">
+        <v>8</v>
+      </c>
+      <c r="E81" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="F81" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="G81" s="33" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="71.25">
+      <c r="A82" s="24"/>
+      <c r="B82" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C82" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" s="31">
+        <v>50</v>
+      </c>
+      <c r="E82" s="31"/>
+      <c r="F82" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="G82" s="33" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15" customHeight="1">
+      <c r="A83" s="24"/>
+      <c r="B83" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="C83" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" s="31">
+        <v>50</v>
+      </c>
+      <c r="E83" s="31"/>
+      <c r="F83" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="G83" s="33" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="28.5">
+      <c r="A84" s="24"/>
+      <c r="B84" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="C84" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="31">
+        <v>8</v>
+      </c>
+      <c r="E84" s="31"/>
+      <c r="F84" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="G84" s="33" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="15" customHeight="1">
+      <c r="A85" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="B85" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="C85" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="31">
+        <v>8</v>
+      </c>
+      <c r="E85" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="F85" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="G85" s="33" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15" customHeight="1">
+      <c r="A86" s="24"/>
+      <c r="B86" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="C86" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" s="31">
+        <v>50</v>
+      </c>
+      <c r="E86" s="31"/>
+      <c r="F86" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="G86" s="33" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="15" customHeight="1">
+      <c r="A87" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="B87" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="C87" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="31">
+        <v>8</v>
+      </c>
+      <c r="E87" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="F87" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="G87" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="28.5">
+      <c r="A88" s="24"/>
+      <c r="B88" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C88" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="31">
+        <v>8</v>
+      </c>
+      <c r="E88" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="F88" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="G88" s="33" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="15" customHeight="1">
+      <c r="A89" s="24"/>
+      <c r="B89" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C89" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="31">
+        <v>8</v>
+      </c>
+      <c r="E89" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="F89" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="G89" s="33" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="19">
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A47"/>
+    <mergeCell ref="A48:A50"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="A21:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A47"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="A63:A69"/>
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="A75:A79"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G23" r:id="rId1" display="lafuente@gmail.com"/>
-    <hyperlink ref="G25" r:id="rId2" display="https://lafuente.com/" tooltip="https://lafuente.com/"/>
+    <hyperlink ref="G23" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G25" r:id="rId2" tooltip="https://lafuente.com/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>